--- a/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2015 (F15).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2015 (F15).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A55"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,378 +444,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Abzan Beastmaster</t>
+          <t>('Abzan Beastmaster', ['{2}{G}', 'Creature — Dog Shaman', 'At the beginning of your upkeep, draw a card if you control the creature with the greatest toughness or tied for the greatest toughness.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{2}{G}</t>
+          <t>('Anticipate', ['{1}{U}', 'Instant', 'Look at the top three cards of your library. Put one of them into your hand and the rest on the bottom of your library in any order.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Dog Shaman</t>
+          <t>('Disdainful Stroke', ['{1}{U}', 'Instant', 'Counter target spell with converted mana cost 4 or greater.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>At the beginning of your upkeep, draw a card if you control the creature with the greatest toughness or tied for the greatest toughness.</t>
+          <t>('Frenzied Goblin', ['{R}', 'Creature — Goblin Berserker', 'Whenever Frenzied Goblin attacks, you may pay {R}. If you do, target creature can’t block this turn.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>('Frost Walker', ['{1}{U}', 'Creature — Elemental', 'When Frost Walker becomes the target of a spell or ability, sacrifice it.', '4/1'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Anticipate</t>
+          <t>('Hordeling Outburst', ['{1}{R}{R}', 'Sorcery', 'Create three 1/1 red Goblin creature tokens.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{1}{U}</t>
+          <t>('Orator of Ojutai', ['{1}{W}', 'Creature — Bird Monk', 'As an additional cost to cast this spell, you may reveal a Dragon card from your hand.', 'Defender, flying', 'When Orator of Ojutai enters the battlefield, if you revealed a Dragon card or controlled a Dragon as you cast this spell, draw a card.', '0/4'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>('Path to Exile', ['{W}', 'Instant', 'Exile target creature. Its controller may search their library for a basic land card, put that card onto the battlefield tapped, then shuffle their library.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Look at the top three cards of your library. Put one of them into your hand and the rest on the bottom of your library in any order.</t>
+          <t>('Roast', ['{1}{R}', 'Sorcery', 'Roast deals 5 damage to target creature without flying.'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Disdainful Stroke</t>
+          <t>('Serum Visions', ['{U}', 'Sorcery', 'Draw a card. Scry 2.'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>{1}{U}</t>
+          <t>('Suspension Field', ['{1}{W}', 'Enchantment', 'When Suspension Field enters the battlefield, you may exile target creature with toughness 3 or greater until Suspension Field leaves the battlefield. (That creature returns under its owner’s control.)'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Counter target spell with converted mana cost 4 or greater.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Frenzied Goblin</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Creature — Goblin Berserker</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Whenever Frenzied Goblin attacks, you may pay {R}. If you do, target creature can’t block this turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Frost Walker</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>{1}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Creature — Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>When Frost Walker becomes the target of a spell or ability, sacrifice it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>4/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Hordeling Outburst</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>{1}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Create three 1/1 red Goblin creature tokens.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Orator of Ojutai</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>{1}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Creature — Bird Monk</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>As an additional cost to cast this spell, you may reveal a Dragon card from your hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Defender, flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>When Orator of Ojutai enters the battlefield, if you revealed a Dragon card or controlled a Dragon as you cast this spell, draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>0/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Path to Exile</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Exile target creature. Its controller may search their library for a basic land card, put that card onto the battlefield tapped, then shuffle their library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Roast</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Roast deals 5 damage to target creature without flying.</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Serum Visions</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Draw a card. Scry 2.</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Suspension Field</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>{1}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>When Suspension Field enters the battlefield, you may exile target creature with toughness 3 or greater until Suspension Field leaves the battlefield. (That creature returns under its owner’s control.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Ultimate Price</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>{1}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Destroy target monocolored creature.</t>
+          <t>('Ultimate Price', ['{1}{B}', 'Instant', 'Destroy target monocolored creature.'])</t>
         </is>
       </c>
     </row>
